--- a/saved_models/accuracies/overall_stats/max_r_overall_stats.xlsx
+++ b/saved_models/accuracies/overall_stats/max_r_overall_stats.xlsx
@@ -522,49 +522,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>508.5</v>
+        <v>241.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>25.0414935064935</v>
+        <v>15.181125</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>5.08</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>286.47</v>
+        <v>226.32</v>
       </c>
       <c r="K2" t="n">
-        <v>241.73</v>
+        <v>226.32</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="O2" t="n">
-        <v>483.46</v>
+        <v>226.32</v>
       </c>
       <c r="P2" t="n">
-        <v>20.31</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +574,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>508.5</v>
+        <v>241.5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25.0414935064935</v>
+        <v>15.181125</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>5.08</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>286.47</v>
+        <v>226.32</v>
       </c>
       <c r="K3" t="n">
-        <v>241.73</v>
+        <v>226.32</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="O3" t="n">
-        <v>483.46</v>
+        <v>226.32</v>
       </c>
       <c r="P3" t="n">
-        <v>20.31</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="4">
@@ -626,49 +626,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>508.5</v>
+        <v>241.5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>25.0414935064935</v>
+        <v>15.181125</v>
       </c>
       <c r="H4" t="n">
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>5.08</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
-        <v>286.47</v>
+        <v>226.32</v>
       </c>
       <c r="K4" t="n">
-        <v>241.73</v>
+        <v>226.32</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="N4" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="O4" t="n">
-        <v>483.46</v>
+        <v>226.32</v>
       </c>
       <c r="P4" t="n">
-        <v>20.31</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="5">
@@ -678,49 +678,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>508.5</v>
+        <v>241.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>25.0414935064935</v>
+        <v>15.181125</v>
       </c>
       <c r="H5" t="n">
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>5.08</v>
+        <v>5.25</v>
       </c>
       <c r="J5" t="n">
-        <v>286.47</v>
+        <v>226.32</v>
       </c>
       <c r="K5" t="n">
-        <v>241.73</v>
+        <v>226.32</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="N5" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="O5" t="n">
-        <v>483.46</v>
+        <v>226.32</v>
       </c>
       <c r="P5" t="n">
-        <v>20.31</v>
+        <v>15.91</v>
       </c>
     </row>
     <row r="6">
@@ -730,49 +730,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>508.5</v>
+        <v>241.5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>25.0414935064935</v>
+        <v>15.181125</v>
       </c>
       <c r="H6" t="n">
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>5.08</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>286.47</v>
+        <v>226.32</v>
       </c>
       <c r="K6" t="n">
-        <v>241.73</v>
+        <v>226.32</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="N6" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="O6" t="n">
-        <v>483.46</v>
+        <v>226.32</v>
       </c>
       <c r="P6" t="n">
-        <v>20.31</v>
+        <v>15.91</v>
       </c>
     </row>
   </sheetData>

--- a/saved_models/accuracies/overall_stats/max_r_overall_stats.xlsx
+++ b/saved_models/accuracies/overall_stats/max_r_overall_stats.xlsx
@@ -531,40 +531,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.5</v>
+        <v>235.5</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.181125</v>
+        <v>9.000154411764701</v>
       </c>
       <c r="H2" t="n">
         <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>4.71</v>
       </c>
       <c r="J2" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="K2" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="P2" t="n">
-        <v>15.91</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="3">
@@ -583,40 +583,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>241.5</v>
+        <v>235.5</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>15.181125</v>
+        <v>9.000154411764701</v>
       </c>
       <c r="H3" t="n">
         <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>4.71</v>
       </c>
       <c r="J3" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="K3" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="O3" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="P3" t="n">
-        <v>15.91</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="4">
@@ -635,40 +635,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>241.5</v>
+        <v>235.5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>15.181125</v>
+        <v>9.000154411764701</v>
       </c>
       <c r="H4" t="n">
         <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>4.71</v>
       </c>
       <c r="J4" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="K4" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="P4" t="n">
-        <v>15.91</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="5">
@@ -687,40 +687,40 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.5</v>
+        <v>235.5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>15.181125</v>
+        <v>9.000154411764701</v>
       </c>
       <c r="H5" t="n">
         <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>5.25</v>
+        <v>4.71</v>
       </c>
       <c r="J5" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="K5" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="P5" t="n">
-        <v>15.91</v>
+        <v>26.17</v>
       </c>
     </row>
     <row r="6">
@@ -739,40 +739,40 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>241.5</v>
+        <v>235.5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>15.181125</v>
+        <v>9.000154411764701</v>
       </c>
       <c r="H6" t="n">
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>4.71</v>
       </c>
       <c r="J6" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="K6" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="N6" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
-        <v>226.32</v>
+        <v>226.5</v>
       </c>
       <c r="P6" t="n">
-        <v>15.91</v>
+        <v>26.17</v>
       </c>
     </row>
   </sheetData>
